--- a/data/junk.xlsx
+++ b/data/junk.xlsx
@@ -70,6 +70,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +515,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -679,7 +680,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="str">
-        <f t="shared" ref="A12:A20" si="0">A3</f>
+        <f t="shared" ref="A12:A18" si="0">A3</f>
         <v>Cloth</v>
       </c>
       <c r="B12" s="3">

--- a/data/junk.xlsx
+++ b/data/junk.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F9AC8-DD91-754B-9484-77A4D4016AF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19480" yWindow="6640" windowWidth="28740" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Generics" sheetId="1" r:id="rId1"/>
+    <sheet name="Car" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Qty</t>
   </si>
@@ -58,12 +71,24 @@
   </si>
   <si>
     <t>Wood</t>
+  </si>
+  <si>
+    <t>Car Tire</t>
+  </si>
+  <si>
+    <t>Left Door</t>
+  </si>
+  <si>
+    <t>Right Door</t>
+  </si>
+  <si>
+    <t>Heavy Fusion Reactor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -187,6 +212,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -511,14 +544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A25" sqref="A25:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
@@ -528,7 +561,7 @@
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,7 +579,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -560,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -574,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -588,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -602,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -617,7 +650,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -632,7 +665,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -646,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -660,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>A2</f>
         <v>Circuitry</v>
@@ -678,7 +711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" ref="A12:A18" si="0">A3</f>
         <v>Cloth</v>
@@ -696,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Glass</v>
@@ -714,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Leather</v>
@@ -732,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Metal</v>
@@ -750,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Oil</v>
@@ -768,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Plastic</v>
@@ -786,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Wood</v>
@@ -804,98 +837,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="B23"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="B24"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="B25"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="B26"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="B27"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="B28"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="B29"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="B31"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="B32"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33"/>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5">
-      <c r="B34"/>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35"/>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5">
-      <c r="B36"/>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37"/>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38"/>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -908,4 +925,114 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33338492-CFEE-DF49-A0F8-EC57CE1E3FB5}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="49.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="5">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="5">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12"/>
+      <c r="E12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/junk.xlsx
+++ b/data/junk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F9AC8-DD91-754B-9484-77A4D4016AF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1196D60-4F0D-8644-8840-BDDCF1FE5303}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E39"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7">
         <v>25</v>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7">
         <v>50</v>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="7">
         <v>35</v>
@@ -640,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
@@ -670,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>10</v>
@@ -699,8 +699,7 @@
         <v>Circuitry</v>
       </c>
       <c r="B11" s="3">
-        <f>INT(B2/5)*10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <f>C2*10</f>
@@ -717,15 +716,14 @@
         <v>Cloth</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B18" si="1">INT(B3/5)*10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:C18" si="2">C3*10</f>
+        <f t="shared" ref="C12:C18" si="1">C3*10</f>
         <v>250</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ref="D12:D18" si="3">D3*10</f>
+        <f t="shared" ref="D12:D18" si="2">D3*10</f>
         <v>10</v>
       </c>
     </row>
@@ -735,15 +733,14 @@
         <v>Glass</v>
       </c>
       <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
+        <v>500</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -753,15 +750,14 @@
         <v>Leather</v>
       </c>
       <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
+        <v>350</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -771,15 +767,14 @@
         <v>Metal</v>
       </c>
       <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C15" s="3">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -789,15 +784,14 @@
         <v>Oil</v>
       </c>
       <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
+        <v>400</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -807,15 +801,14 @@
         <v>Plastic</v>
       </c>
       <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
+        <v>200</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -825,15 +818,14 @@
         <v>Wood</v>
       </c>
       <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>

--- a/data/junk.xlsx
+++ b/data/junk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1196D60-4F0D-8644-8840-BDDCF1FE5303}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE926701-25F7-F04E-82AA-0B1EACD7DD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20360" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Qty</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Leather</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>Oil</t>
   </si>
   <si>
@@ -83,13 +80,97 @@
   </si>
   <si>
     <t>Heavy Fusion Reactor</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>Adhesive</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Antiseptic</t>
+  </si>
+  <si>
+    <t>Asbestos</t>
+  </si>
+  <si>
+    <t>Ballistic fiber</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Fiber optics</t>
+  </si>
+  <si>
+    <t>Fiberglass</t>
+  </si>
+  <si>
+    <t>Gears</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Nuclear Material</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Game Value</t>
+  </si>
+  <si>
+    <t>Game Weight</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Screws</t>
+  </si>
+  <si>
+    <t>Springs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +201,14 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,7 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -179,13 +268,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -545,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,12 +665,16 @@
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="49.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" customWidth="1"/>
+    <col min="9" max="9" width="49.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,345 +684,883 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <f>F2*H2</f>
+        <v>10</v>
+      </c>
+      <c r="D2" s="16">
+        <f>G2*H2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <f>F3*H3</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="16">
+        <f>G3*H3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>50</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <f>F4*H4</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="16">
+        <f>G4*H4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <f>F5*H5</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="16">
+        <f>G5*H5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <f>F6*H6</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <f>G6*H6</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <f>F7*H7</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="16">
+        <f>G7*H7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <f>F8*H8</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="16">
+        <f>G8*H8</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <f>F9*H9</f>
         <v>20</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>A2</f>
-        <v>Circuitry</v>
+      <c r="D9" s="16">
+        <f>G9*H9</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <f>F10*H10</f>
+        <v>80</v>
+      </c>
+      <c r="D10" s="16">
+        <f>G10*H10</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <f>C2*10</f>
-        <v>1000</v>
-      </c>
-      <c r="D11" s="5">
-        <f>D2*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" ref="A12:A18" si="0">A3</f>
-        <v>Cloth</v>
+        <f>F11*H11</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="16">
+        <f>G11*H11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:C18" si="1">C3*10</f>
-        <v>250</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" ref="D12:D18" si="2">D3*10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>Glass</v>
+        <f>F12*H12</f>
+        <v>60</v>
+      </c>
+      <c r="D12" s="16">
+        <f>G12*H12</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>Leather</v>
+        <f>F13*H13</f>
+        <v>50</v>
+      </c>
+      <c r="D13" s="16">
+        <f>G13*H13</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>Metal</v>
+        <f>F14*H14</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="16">
+        <f>G14*H14</f>
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>Oil</v>
+        <f>F15*H15</f>
+        <v>20</v>
+      </c>
+      <c r="D15" s="16">
+        <f>G15*H15</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>Plastic</v>
+        <f>F16*H16</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="16">
+        <f>G16*H16</f>
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>Wood</v>
+        <f>F17*H17</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="16">
+        <f>G17*H17</f>
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="5">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C23"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C27"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <f>F18*H18</f>
+        <v>10</v>
+      </c>
+      <c r="D18" s="16">
+        <f>G18*H18</f>
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <f>F19*H19</f>
+        <v>40</v>
+      </c>
+      <c r="D19" s="16">
+        <f>G19*H19</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <f>F20*H20</f>
+        <v>30</v>
+      </c>
+      <c r="D20" s="16">
+        <f>G20*H20</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <f>F21*H21</f>
+        <v>40</v>
+      </c>
+      <c r="D21" s="16">
+        <f>G21*H21</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <f>F22*H22</f>
+        <v>10</v>
+      </c>
+      <c r="D22" s="16">
+        <f>G22*H22</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <f>F23*H23</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="16">
+        <f>G23*H23</f>
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <f>F24*H24</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="16">
+        <f>G24*H24</f>
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <f>F25*H25</f>
+        <v>20</v>
+      </c>
+      <c r="D25" s="16">
+        <f>G25*H25</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>10</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <f>F26*H26</f>
+        <v>10</v>
+      </c>
+      <c r="D26" s="16">
+        <f>G26*H26</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <f>F27*H27</f>
+        <v>2</v>
+      </c>
+      <c r="D27" s="16">
+        <f>G27*H27</f>
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <f>F28*H28</f>
+        <v>6</v>
+      </c>
+      <c r="D28" s="16">
+        <f>G28*H28</f>
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="5">
+        <v>6</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <f>F29*H29</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="16">
+        <f>G29*H29</f>
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="17"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="17"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="17"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="17"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="17"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="17"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="17"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="17"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="17"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
+    <sortCondition ref="E2:E29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -957,7 +1608,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -970,14 +1621,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="5">
@@ -987,7 +1638,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="5">
@@ -998,7 +1649,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7"/>
